--- a/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>96.20148469372445</v>
+        <v>97.55615297575208</v>
       </c>
       <c r="D2" t="n">
-        <v>28.43044268690069</v>
+        <v>25.2785056873045</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.39149965775806</v>
+        <v>90.96494059714581</v>
       </c>
       <c r="D3" t="n">
-        <v>28.90144949080145</v>
+        <v>29.62769478568288</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>94.93198332501287</v>
+        <v>87.26799048080591</v>
       </c>
       <c r="D4" t="n">
-        <v>28.38292225490141</v>
+        <v>28.57088313450128</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>92.1150907328157</v>
+        <v>93.89026377155018</v>
       </c>
       <c r="D5" t="n">
-        <v>26.41193190568417</v>
+        <v>29.16684412366903</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.64634739329473</v>
+        <v>85.79869012294992</v>
       </c>
       <c r="D6" t="n">
-        <v>31.72972437623282</v>
+        <v>30.43973459546462</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>91.84532286500799</v>
+        <v>89.87371790952945</v>
       </c>
       <c r="D7" t="n">
-        <v>31.96853011121175</v>
+        <v>26.61956319912042</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.40607086366616</v>
+        <v>84.11254348000149</v>
       </c>
       <c r="D8" t="n">
-        <v>31.16953351622412</v>
+        <v>30.26791524239175</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.20095138684701</v>
+        <v>90.09387968813962</v>
       </c>
       <c r="D9" t="n">
-        <v>32.19770092168888</v>
+        <v>30.50547026793888</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>88.11343442274398</v>
+        <v>81.95183868985895</v>
       </c>
       <c r="D10" t="n">
-        <v>34.01706301951122</v>
+        <v>25.84858720449077</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.56254434525935</v>
+        <v>79.41521197390604</v>
       </c>
       <c r="D11" t="n">
-        <v>28.95953186420258</v>
+        <v>26.64072458867906</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.81362817024089</v>
+        <v>82.79903430982111</v>
       </c>
       <c r="D12" t="n">
-        <v>28.83349649718384</v>
+        <v>26.85000517408506</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>86.54944519072201</v>
+        <v>77.10908855508781</v>
       </c>
       <c r="D13" t="n">
-        <v>30.36047020688163</v>
+        <v>28.70833402410815</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.04042395810562</v>
+        <v>82.44876046233009</v>
       </c>
       <c r="D14" t="n">
-        <v>30.85778725418615</v>
+        <v>27.24111205970781</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.89420876224318</v>
+        <v>81.94039239050711</v>
       </c>
       <c r="D15" t="n">
-        <v>28.62617649931173</v>
+        <v>31.05631633022593</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.35780840709739</v>
+        <v>79.79487825215689</v>
       </c>
       <c r="D16" t="n">
-        <v>23.99094239093044</v>
+        <v>29.7749660061157</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.21317567538003</v>
+        <v>71.76279275087211</v>
       </c>
       <c r="D17" t="n">
-        <v>29.56112354529286</v>
+        <v>30.20215694289053</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>70.32079438638553</v>
+        <v>76.53905974742992</v>
       </c>
       <c r="D18" t="n">
-        <v>30.28481939674458</v>
+        <v>30.97526340955471</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>77.41985822453256</v>
+        <v>73.72637830011487</v>
       </c>
       <c r="D19" t="n">
-        <v>31.62981713580398</v>
+        <v>29.88517445730869</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>77.98356375438817</v>
+        <v>74.74775922338652</v>
       </c>
       <c r="D20" t="n">
-        <v>32.26566501649631</v>
+        <v>30.88687059347933</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>68.73641666703539</v>
+        <v>75.28319017189563</v>
       </c>
       <c r="D21" t="n">
-        <v>30.17989529893623</v>
+        <v>27.36622435592706</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.21131951205291</v>
+        <v>69.41919169144393</v>
       </c>
       <c r="D22" t="n">
-        <v>32.42951483414187</v>
+        <v>31.16788744900496</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.58616701943286</v>
+        <v>69.82616012384955</v>
       </c>
       <c r="D23" t="n">
-        <v>31.04698972409765</v>
+        <v>29.03829879887105</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.61568573402259</v>
+        <v>70.91796992422644</v>
       </c>
       <c r="D24" t="n">
-        <v>28.96360479284865</v>
+        <v>24.46025095671636</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.53456176967016</v>
+        <v>69.50461717437592</v>
       </c>
       <c r="D25" t="n">
-        <v>28.3662275686517</v>
+        <v>26.58072081147802</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>56.6882273531561</v>
+        <v>68.25199409085826</v>
       </c>
       <c r="D26" t="n">
-        <v>26.74338193308713</v>
+        <v>30.73467048321279</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>62.89098635141714</v>
+        <v>62.96677193106145</v>
       </c>
       <c r="D27" t="n">
-        <v>31.11245554171987</v>
+        <v>28.31468218365464</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.96668236600675</v>
+        <v>68.68578332505669</v>
       </c>
       <c r="D28" t="n">
-        <v>30.15512320335003</v>
+        <v>26.05315037097568</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>59.56722974465063</v>
+        <v>67.73462810545433</v>
       </c>
       <c r="D29" t="n">
-        <v>28.18555220287967</v>
+        <v>28.08799257220087</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>66.73798015052354</v>
+        <v>64.44717895642552</v>
       </c>
       <c r="D30" t="n">
-        <v>31.18972035482662</v>
+        <v>26.97725455824283</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>65.00765585578061</v>
+        <v>65.33870347108514</v>
       </c>
       <c r="D31" t="n">
-        <v>27.67604777349497</v>
+        <v>30.16213775931211</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>55.16251432258517</v>
+        <v>60.52823785625264</v>
       </c>
       <c r="D32" t="n">
-        <v>25.13084703025351</v>
+        <v>26.8728941901623</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>63.61181869758337</v>
+        <v>62.23433767941888</v>
       </c>
       <c r="D33" t="n">
-        <v>30.6711720544819</v>
+        <v>30.51720199037681</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.58160972337887</v>
+        <v>60.01266534141811</v>
       </c>
       <c r="D34" t="n">
-        <v>36.69626742352152</v>
+        <v>28.40784793925923</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>54.88398600727604</v>
+        <v>52.46286048859899</v>
       </c>
       <c r="D35" t="n">
-        <v>31.14477873956989</v>
+        <v>26.56534343073681</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.82808304228868</v>
+        <v>57.7643575711618</v>
       </c>
       <c r="D36" t="n">
-        <v>28.30910610545724</v>
+        <v>26.57155633790547</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.92927392701458</v>
+        <v>57.88356153194848</v>
       </c>
       <c r="D37" t="n">
-        <v>29.17820991548666</v>
+        <v>27.50134754447562</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.48409819931342</v>
+        <v>53.16944246208813</v>
       </c>
       <c r="D38" t="n">
-        <v>29.48959936023187</v>
+        <v>27.20586572683209</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.47687746230618</v>
+        <v>50.76748682483067</v>
       </c>
       <c r="D39" t="n">
-        <v>26.56873683501062</v>
+        <v>31.54979009123694</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>55.23801073270768</v>
+        <v>50.51297514001755</v>
       </c>
       <c r="D40" t="n">
-        <v>28.41766860212411</v>
+        <v>27.53899664784405</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.31296016126164</v>
+        <v>50.58759239451466</v>
       </c>
       <c r="D41" t="n">
-        <v>31.39196266903177</v>
+        <v>31.47275434572249</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.41719257630157</v>
+        <v>51.03101809406419</v>
       </c>
       <c r="D42" t="n">
-        <v>29.87954730819497</v>
+        <v>28.54125874409559</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.01126904875527</v>
+        <v>53.99804569581518</v>
       </c>
       <c r="D43" t="n">
-        <v>28.07347816222232</v>
+        <v>24.5222317847664</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.34735935601906</v>
+        <v>49.14835696283339</v>
       </c>
       <c r="D44" t="n">
-        <v>27.33803215853734</v>
+        <v>28.95315334443454</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.66413623290172</v>
+        <v>43.71548004441208</v>
       </c>
       <c r="D45" t="n">
-        <v>29.61873612582985</v>
+        <v>29.31668676059231</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.76115516221846</v>
+        <v>44.32368495860045</v>
       </c>
       <c r="D46" t="n">
-        <v>27.56513084447328</v>
+        <v>26.04992436997694</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>42.63503145786733</v>
+        <v>41.77951033501365</v>
       </c>
       <c r="D47" t="n">
-        <v>27.72352852256664</v>
+        <v>31.74811350220984</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.17717866751588</v>
+        <v>42.7524552194681</v>
       </c>
       <c r="D48" t="n">
-        <v>32.00351011626449</v>
+        <v>27.35276809796137</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>46.13776688860587</v>
+        <v>42.24462857001403</v>
       </c>
       <c r="D49" t="n">
-        <v>27.48785333118824</v>
+        <v>26.97601925784113</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.82066012404976</v>
+        <v>40.46839771268228</v>
       </c>
       <c r="D50" t="n">
-        <v>27.33949726757724</v>
+        <v>27.87942565111354</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.21612433853346</v>
+        <v>39.20861396898929</v>
       </c>
       <c r="D51" t="n">
-        <v>30.2298323442542</v>
+        <v>28.58648727756457</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.45495381209935</v>
+        <v>38.48503897144995</v>
       </c>
       <c r="D52" t="n">
-        <v>24.93724562746961</v>
+        <v>34.69240122802155</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>33.73412413886038</v>
+        <v>37.68433276167575</v>
       </c>
       <c r="D53" t="n">
-        <v>32.14834587750047</v>
+        <v>25.57946518660094</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>44.24254225618367</v>
+        <v>34.19410528228037</v>
       </c>
       <c r="D54" t="n">
-        <v>27.43503328150592</v>
+        <v>24.21618723735386</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.53891787454985</v>
+        <v>34.46042218295234</v>
       </c>
       <c r="D55" t="n">
-        <v>30.337603186526</v>
+        <v>26.36349746363421</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.18877038486206</v>
+        <v>33.76639422588259</v>
       </c>
       <c r="D56" t="n">
-        <v>29.20860774739324</v>
+        <v>31.1214351911858</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.54792309801429</v>
+        <v>34.50042268078064</v>
       </c>
       <c r="D57" t="n">
-        <v>28.90045405718279</v>
+        <v>30.88897727503619</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.62397115303737</v>
+        <v>29.77481201343684</v>
       </c>
       <c r="D58" t="n">
-        <v>26.76850151914955</v>
+        <v>30.36169320325548</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>29.21799886350474</v>
+        <v>34.44466371756359</v>
       </c>
       <c r="D59" t="n">
-        <v>26.9873481129458</v>
+        <v>32.51696747003853</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.49103275302965</v>
+        <v>25.87213097463139</v>
       </c>
       <c r="D60" t="n">
-        <v>29.32495342746313</v>
+        <v>30.50686006849926</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.8399033605775</v>
+        <v>28.54026465957749</v>
       </c>
       <c r="D61" t="n">
-        <v>28.61964976439098</v>
+        <v>30.89223372574042</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.7198406992702</v>
+        <v>31.73991589551883</v>
       </c>
       <c r="D62" t="n">
-        <v>25.46483106598381</v>
+        <v>29.14721190061136</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.55052371513981</v>
+        <v>28.54582306345036</v>
       </c>
       <c r="D63" t="n">
-        <v>26.99129791361542</v>
+        <v>26.17496368321681</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.86910723656273</v>
+        <v>30.60150834816303</v>
       </c>
       <c r="D64" t="n">
-        <v>28.98790308507169</v>
+        <v>27.78872213647819</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>31.80813289331394</v>
+        <v>27.17704085619168</v>
       </c>
       <c r="D65" t="n">
-        <v>29.69941249992126</v>
+        <v>24.87119423758114</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.49351900497975</v>
+        <v>26.7531955803035</v>
       </c>
       <c r="D66" t="n">
-        <v>30.2095887298277</v>
+        <v>26.03194851609212</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.50409399236358</v>
+        <v>23.02172081846116</v>
       </c>
       <c r="D67" t="n">
-        <v>30.28899164635578</v>
+        <v>27.93809010955973</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.7818475287015</v>
+        <v>22.88676434370278</v>
       </c>
       <c r="D68" t="n">
-        <v>26.20746623666209</v>
+        <v>28.00440208241815</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.13092373744217</v>
+        <v>21.82377677321416</v>
       </c>
       <c r="D69" t="n">
-        <v>29.21500042722021</v>
+        <v>30.08680275086142</v>
       </c>
     </row>
   </sheetData>
